--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -520,9 +520,6 @@
       <c r="B4">
         <v>56</v>
       </c>
-      <c r="C4">
-        <v>48</v>
-      </c>
       <c r="D4">
         <v>86</v>
       </c>
@@ -598,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>57</v>
@@ -634,10 +631,10 @@
         <v>67</v>
       </c>
       <c r="Q5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W5">
         <v>99</v>

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -598,10 +598,10 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>47</v>
@@ -613,7 +613,7 @@
         <v>61</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5">
         <v>57</v>
@@ -634,7 +634,7 @@
         <v>64</v>
       </c>
       <c r="U5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W5">
         <v>99</v>

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -610,19 +610,22 @@
         <v>58</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J5">
         <v>57</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="M5">
+        <v>58</v>
       </c>
       <c r="N5">
         <v>63</v>
@@ -637,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="W5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X5">
         <v>72</v>
@@ -646,13 +649,13 @@
         <v>95</v>
       </c>
       <c r="AB5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5">
         <v>100</v>
       </c>
       <c r="AH5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5">
         <v>119</v>
@@ -661,9 +664,6 @@
     <row r="6" spans="1:36">
       <c r="A6">
         <v>5</v>
-      </c>
-      <c r="H6">
-        <v>57</v>
       </c>
       <c r="J6">
         <v>56</v>

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -503,9 +503,6 @@
       <c r="O3">
         <v>64</v>
       </c>
-      <c r="Q3">
-        <v>54</v>
-      </c>
       <c r="Y3">
         <v>82</v>
       </c>
@@ -586,9 +583,6 @@
       <c r="AH4">
         <v>101</v>
       </c>
-      <c r="AJ4">
-        <v>94</v>
-      </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5">
@@ -669,7 +663,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>77</v>
@@ -678,7 +672,7 @@
         <v>68</v>
       </c>
       <c r="Q6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R6">
         <v>68</v>
@@ -687,10 +681,13 @@
         <v>73</v>
       </c>
       <c r="U6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V6">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="Y6">
+        <v>70</v>
       </c>
       <c r="AA6">
         <v>72</v>
@@ -699,22 +696,22 @@
         <v>84</v>
       </c>
       <c r="AC6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH6">
         <v>99</v>
       </c>
       <c r="AJ6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -659,8 +659,14 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
       <c r="J6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>64</v>
@@ -669,22 +675,22 @@
         <v>77</v>
       </c>
       <c r="P6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6">
         <v>70</v>
@@ -699,7 +705,7 @@
         <v>81</v>
       </c>
       <c r="AD6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE6">
         <v>105</v>
@@ -708,10 +714,10 @@
         <v>97</v>
       </c>
       <c r="AH6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ6">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -665,6 +665,9 @@
       <c r="C6">
         <v>49</v>
       </c>
+      <c r="E6">
+        <v>46</v>
+      </c>
       <c r="J6">
         <v>57</v>
       </c>
@@ -675,7 +678,7 @@
         <v>77</v>
       </c>
       <c r="P6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6">
         <v>60</v>
@@ -690,13 +693,13 @@
         <v>70</v>
       </c>
       <c r="V6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6">
         <v>84</v>
@@ -711,13 +714,13 @@
         <v>105</v>
       </c>
       <c r="AG6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH6">
         <v>100</v>
       </c>
       <c r="AJ6">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -663,7 +663,7 @@
         <v>52</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>46</v>
@@ -672,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="K6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>77</v>
@@ -690,7 +690,7 @@
         <v>75</v>
       </c>
       <c r="U6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6">
         <v>79</v>
@@ -731,7 +731,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>64</v>
@@ -740,7 +740,10 @@
         <v>69</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="M7">
+        <v>57</v>
       </c>
       <c r="N7">
         <v>69</v>
@@ -755,7 +758,7 @@
         <v>75</v>
       </c>
       <c r="W7">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X7">
         <v>78</v>
@@ -767,10 +770,10 @@
         <v>81</v>
       </c>
       <c r="AE7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG7">
         <v>97</v>

--- a/各月份各月红球超均值情况.xlsx
+++ b/各月份各月红球超均值情况.xlsx
@@ -665,9 +665,6 @@
       <c r="C6">
         <v>50</v>
       </c>
-      <c r="E6">
-        <v>46</v>
-      </c>
       <c r="J6">
         <v>57</v>
       </c>
@@ -731,13 +728,13 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>64</v>
       </c>
       <c r="K7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7">
         <v>71</v>
@@ -746,7 +743,7 @@
         <v>57</v>
       </c>
       <c r="N7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q7">
         <v>55</v>
@@ -758,13 +755,13 @@
         <v>75</v>
       </c>
       <c r="W7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X7">
         <v>78</v>
       </c>
       <c r="Y7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7">
         <v>81</v>
@@ -776,13 +773,13 @@
         <v>96</v>
       </c>
       <c r="AG7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI7">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:36">
